--- a/DatosSetas_edited.xlsx
+++ b/DatosSetas_edited.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="29">
   <si>
     <t>COLOR</t>
   </si>
@@ -61,7 +61,7 @@
     <t>blanco</t>
   </si>
   <si>
-    <t>Venoso</t>
+    <t>Venenoso</t>
   </si>
   <si>
     <t>Comestible</t>
@@ -73,7 +73,34 @@
     <t>Entropía (C)</t>
   </si>
   <si>
-    <t>Entropía</t>
+    <t>Amarillo</t>
+  </si>
+  <si>
+    <t>sv/v</t>
+  </si>
+  <si>
+    <t>Blanco</t>
+  </si>
+  <si>
+    <t>Ganancia</t>
+  </si>
+  <si>
+    <t>Moteado</t>
+  </si>
+  <si>
+    <t>Liso</t>
+  </si>
+  <si>
+    <t>Grande</t>
+  </si>
+  <si>
+    <t>Mediano</t>
+  </si>
+  <si>
+    <t>Largo</t>
+  </si>
+  <si>
+    <t>Normal</t>
   </si>
 </sst>
 </file>
@@ -81,12 +108,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,34 +122,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -134,9 +151,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -150,8 +166,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,9 +189,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,11 +211,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -203,48 +234,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -255,19 +275,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -277,170 +459,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -449,11 +469,137 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color auto="true"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="true"/>
+      </top>
+      <bottom style="medium">
+        <color auto="true"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="true"/>
+      </top>
+      <bottom style="medium">
+        <color auto="true"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="true"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="true"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="true"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="true"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="true"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="true"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="true"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="true"/>
+      </right>
+      <top style="medium">
+        <color auto="true"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="true"/>
+      </right>
+      <top style="medium">
+        <color auto="true"/>
+      </top>
+      <bottom style="medium">
+        <color auto="true"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="true"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="true"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="true"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -489,41 +635,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -541,161 +652,201 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="7" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="19" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="15" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="15" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="14" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1044,15 +1195,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:E15"/>
+  <dimension ref="A2:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="6"/>
   <cols>
-    <col min="3" max="5" width="12.5"/>
+    <col min="1" max="5" width="12.5"/>
+    <col min="7" max="7" width="12.5"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5">
@@ -1242,43 +1394,523 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" ht="16.5" customHeight="true" spans="1:5">
-      <c r="A14" t="s">
+    <row r="14" ht="16.5" customHeight="true"/>
+    <row r="15" ht="16.5" spans="1:5">
+      <c r="A15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="12"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B16" t="s">
         <v>16</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C16" t="s">
         <v>17</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D16" t="s">
         <v>18</v>
       </c>
-      <c r="E14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15">
+      <c r="E16" s="13"/>
+    </row>
+    <row r="17" ht="16.5" spans="1:5">
+      <c r="A17" s="4">
         <f>COUNTIF(E3:E12,E3)/COUNTA(E3:E12)</f>
         <v>0.6</v>
       </c>
-      <c r="B15">
+      <c r="B17" s="5">
         <f>COUNTIF(E3:E12,E5)/COUNTA(E3:E12)</f>
         <v>0.4</v>
       </c>
-      <c r="C15">
-        <f>-A15*LOG(A15,2)*A15</f>
-        <v>0.265307613899834</v>
-      </c>
-      <c r="D15">
-        <f>-B15*LOG(B15,2)*B15</f>
-        <v>0.211508495181978</v>
-      </c>
-      <c r="E15">
-        <f>C15+D15</f>
-        <v>0.476816109081812</v>
+      <c r="C17" s="5">
+        <f>-A17*LOG(A17,2)</f>
+        <v>0.442179356499724</v>
+      </c>
+      <c r="D17" s="5">
+        <f>-B17*LOG(B17,2)</f>
+        <v>0.528771237954945</v>
+      </c>
+      <c r="E17" s="14">
+        <f>C17+D17</f>
+        <v>0.970950594454669</v>
+      </c>
+    </row>
+    <row r="18" ht="16.5"/>
+    <row r="19" ht="16.5" spans="1:5">
+      <c r="A19" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="12">
+        <f>COUNTIF($A$3:$A$12,B19)/COUNTA($A$3:$A$12)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="13"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="3">
+        <f>COUNTIFS($A$3:$A$12,$A$3,$E$3:$E$12,$E$3)/COUNTIF($A$3:$A$12,$A$3)</f>
+        <v>0.8</v>
+      </c>
+      <c r="B21">
+        <f>COUNTIFS($A$3:$A$12,$A$3,$E$3:$E$12,$E$5)/COUNTIF($A$3:$A$12,$A$3)</f>
+        <v>0.2</v>
+      </c>
+      <c r="C21">
+        <f>-A21*LOG(A21,2)</f>
+        <v>0.25754247590989</v>
+      </c>
+      <c r="D21">
+        <f>-B21*LOG(B21,2)</f>
+        <v>0.464385618977472</v>
+      </c>
+      <c r="E21" s="13">
+        <f>C21+D21</f>
+        <v>0.721928094887362</v>
+      </c>
+    </row>
+    <row r="22" ht="16.5" spans="1:5">
+      <c r="A22" s="3"/>
+      <c r="E22" s="13"/>
+    </row>
+    <row r="23" ht="16.5" spans="1:5">
+      <c r="A23" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="12">
+        <f>COUNTIF($A$3:$A$12,B23)/COUNTA($A$3:$A$12)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="13"/>
+    </row>
+    <row r="25" ht="16.5" spans="1:7">
+      <c r="A25" s="4">
+        <f>COUNTIFS($A$3:$A$12,$A$8,$E$3:$E$12,$E$3)/COUNTIF($A$3:$A$12,$A$8)</f>
+        <v>0.4</v>
+      </c>
+      <c r="B25" s="5">
+        <f>COUNTIFS($A$3:$A$12,$A$8,$E$3:$E$12,$E$5)/COUNTIF($A$3:$A$12,$A$8)</f>
+        <v>0.6</v>
+      </c>
+      <c r="C25" s="5">
+        <f>-A25*LOG(A25,2)</f>
+        <v>0.528771237954945</v>
+      </c>
+      <c r="D25" s="5">
+        <f>-B25*LOG(B25,2)</f>
+        <v>0.442179356499724</v>
+      </c>
+      <c r="E25" s="14">
+        <f>C25+D25</f>
+        <v>0.970950594454669</v>
+      </c>
+      <c r="F25" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25">
+        <f>$E$17-(E19*E21+E23*E25)</f>
+        <v>0.124511249783653</v>
+      </c>
+    </row>
+    <row r="26" ht="16.5"/>
+    <row r="27" ht="16.5" spans="1:5">
+      <c r="A27" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="12">
+        <f>COUNTIF($B$3:$B$12,B27)/COUNTA($B$3:$B$12)</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="13"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="3">
+        <f>COUNTIFS($B$3:$B$12,$B$3,$E$3:$E$12,$E$3)/COUNTIF($B$3:$B$12,$B$3)</f>
+        <v>0.5</v>
+      </c>
+      <c r="B29">
+        <f>COUNTIFS($B$3:$B$12,$B$3,$E$3:$E$12,$E$5)/COUNTIF($B$3:$B$12,$B$3)</f>
+        <v>0.5</v>
+      </c>
+      <c r="C29">
+        <f>-A29*LOG(A29,2)</f>
+        <v>0.5</v>
+      </c>
+      <c r="D29">
+        <f>-B29*LOG(B29,2)</f>
+        <v>0.5</v>
+      </c>
+      <c r="E29" s="13">
+        <f>C29+D29</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" ht="16.5" spans="1:5">
+      <c r="A30" s="3"/>
+      <c r="E30" s="13"/>
+    </row>
+    <row r="31" ht="16.5" spans="1:5">
+      <c r="A31" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" s="12">
+        <f>COUNTIF($B$3:$B$12,B31)/COUNTA($B$3:$B$12)</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="13"/>
+    </row>
+    <row r="33" ht="16.5" spans="1:7">
+      <c r="A33" s="4">
+        <f>COUNTIFS($B$3:$B$12,$B$4,$E$3:$E$12,$E$3)/COUNTIF($B$3:$B$12,$B$4)</f>
+        <v>0.75</v>
+      </c>
+      <c r="B33" s="5">
+        <f>COUNTIFS($B$3:$B$12,$B$4,$E$3:$E$12,$E$5)/COUNTIF($B$3:$B$12,$B$4)</f>
+        <v>0.25</v>
+      </c>
+      <c r="C33" s="5">
+        <f>-A33*LOG(A33,2)</f>
+        <v>0.311278124459133</v>
+      </c>
+      <c r="D33" s="5">
+        <f>-B33*LOG(B33,2)</f>
+        <v>0.5</v>
+      </c>
+      <c r="E33" s="14">
+        <f>C33+D33</f>
+        <v>0.811278124459133</v>
+      </c>
+      <c r="F33" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33">
+        <f>$E$17-(E27*E29+E31*E33)</f>
+        <v>0.0464393446710154</v>
+      </c>
+    </row>
+    <row r="34" ht="16.5"/>
+    <row r="35" ht="16.5" spans="1:5">
+      <c r="A35" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="10"/>
+      <c r="D35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="12">
+        <f>COUNTIF($C$3:$C$12,B35)/COUNTA($C$3:$C$12)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" s="13"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="3">
+        <f>COUNTIFS($C$3:$C$12,$C$3,$E$3:$E$12,$E$3)/COUNTIF($C$3:$C$12,$C$3)</f>
+        <v>0.4</v>
+      </c>
+      <c r="B37">
+        <f>COUNTIFS($C$3:$C$12,$C$3,$E$3:$E$12,$E$5)/COUNTIF($C$3:$C$12,$C$3)</f>
+        <v>0.6</v>
+      </c>
+      <c r="C37">
+        <f>-A37*LOG(A37,2)</f>
+        <v>0.528771237954945</v>
+      </c>
+      <c r="D37">
+        <f>-B37*LOG(B37,2)</f>
+        <v>0.442179356499724</v>
+      </c>
+      <c r="E37" s="13">
+        <f>C37+D37</f>
+        <v>0.970950594454669</v>
+      </c>
+    </row>
+    <row r="38" ht="16.5" spans="1:5">
+      <c r="A38" s="3"/>
+      <c r="E38" s="13"/>
+    </row>
+    <row r="39" ht="16.5" spans="1:5">
+      <c r="A39" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" s="11"/>
+      <c r="D39" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E39" s="12">
+        <f>COUNTIF($C$3:$C$12,B39)/COUNTA($C$3:$C$12)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" s="13"/>
+    </row>
+    <row r="41" ht="16.5" spans="1:7">
+      <c r="A41" s="4">
+        <f>COUNTIFS($C$3:$C$12,$C$4,$E$3:$E$12,$E$3)/COUNTIF($C$3:$C$12,$C$4)</f>
+        <v>0.8</v>
+      </c>
+      <c r="B41" s="5">
+        <f>COUNTIFS($C$3:$C$12,$C$4,$E$3:$E$12,$E$5)/COUNTIF($C$3:$C$12,$C$4)</f>
+        <v>0.2</v>
+      </c>
+      <c r="C41" s="5">
+        <f>-A41*LOG(A41,2)</f>
+        <v>0.25754247590989</v>
+      </c>
+      <c r="D41" s="5">
+        <f>-B41*LOG(B41,2)</f>
+        <v>0.464385618977472</v>
+      </c>
+      <c r="E41" s="14">
+        <f>C41+D41</f>
+        <v>0.721928094887362</v>
+      </c>
+      <c r="F41" t="s">
+        <v>22</v>
+      </c>
+      <c r="G41">
+        <f>$E$17-(E35*E37+E39*E41)</f>
+        <v>0.124511249783653</v>
+      </c>
+    </row>
+    <row r="42" ht="16.5"/>
+    <row r="43" ht="16.5" spans="1:5">
+      <c r="A43" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" s="10"/>
+      <c r="D43" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" s="12">
+        <f>COUNTIF($D$3:$D$12,B43)/COUNTA($D$3:$D$12)</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" t="s">
+        <v>18</v>
+      </c>
+      <c r="E44" s="13"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="3">
+        <f>COUNTIFS($D$3:$D$12,$D$3,$E$3:$E$12,$E$3)/COUNTIF($D$3:$D$12,$D$3)</f>
+        <v>0.5</v>
+      </c>
+      <c r="B45">
+        <f>COUNTIFS($D$3:$D$12,$D$3,$E$3:$E$12,$E$5)/COUNTIF($D$3:$D$12,$D$3)</f>
+        <v>0.5</v>
+      </c>
+      <c r="C45">
+        <f>-A45*LOG(A45,2)</f>
+        <v>0.5</v>
+      </c>
+      <c r="D45">
+        <f>-B45*LOG(B45,2)</f>
+        <v>0.5</v>
+      </c>
+      <c r="E45" s="13">
+        <f>C45+D45</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" ht="16.5" spans="1:5">
+      <c r="A46" s="3"/>
+      <c r="E46" s="13"/>
+    </row>
+    <row r="47" ht="16.5" spans="1:5">
+      <c r="A47" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" s="11"/>
+      <c r="D47" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E47" s="12">
+        <f>COUNTIF($D$3:$D$12,B47)/COUNTA($D$3:$D$12)</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" t="s">
+        <v>18</v>
+      </c>
+      <c r="E48" s="13"/>
+    </row>
+    <row r="49" ht="16.5" spans="1:7">
+      <c r="A49" s="4">
+        <f>COUNTIFS($D$3:$D$12,$D$5,$E$3:$E$12,$E$3)/COUNTIF($D$3:$D$12,$D$5)</f>
+        <v>0.666666666666667</v>
+      </c>
+      <c r="B49" s="5">
+        <f>COUNTIFS($D$3:$D$12,$D$5,$E$3:$E$12,$E$5)/COUNTIF($D$3:$D$12,$D$5)</f>
+        <v>0.333333333333333</v>
+      </c>
+      <c r="C49" s="5">
+        <f>-A49*LOG(A49,2)</f>
+        <v>0.389975000480771</v>
+      </c>
+      <c r="D49" s="5">
+        <f>-B49*LOG(B49,2)</f>
+        <v>0.528320833573719</v>
+      </c>
+      <c r="E49" s="14">
+        <f>C49+D49</f>
+        <v>0.91829583405449</v>
+      </c>
+      <c r="F49" t="s">
+        <v>22</v>
+      </c>
+      <c r="G49">
+        <f>$E$17-(E43*E45+E47*E49)</f>
+        <v>0.0199730940219749</v>
       </c>
     </row>
   </sheetData>
